--- a/scripts/datos/precios.xlsx
+++ b/scripts/datos/precios.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,10 +768,8 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44974</v>
       </c>
       <c r="C2" t="n">
         <v>995.14</v>
@@ -963,10 +965,8 @@
       <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44975</v>
       </c>
       <c r="C3" t="n">
         <v>995.14</v>
@@ -1162,10 +1162,8 @@
       <c r="A4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C4" t="n">
         <v>995.14</v>
@@ -1361,10 +1359,8 @@
       <c r="A5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44978</v>
       </c>
       <c r="C5" t="n">
         <v>995.14</v>
@@ -1560,10 +1556,8 @@
       <c r="A6" t="n">
         <v>16</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44979</v>
       </c>
       <c r="C6" t="n">
         <v>995.14</v>
@@ -1759,10 +1753,8 @@
       <c r="A7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44980</v>
       </c>
       <c r="C7" t="n">
         <v>995.14</v>
@@ -1958,10 +1950,8 @@
       <c r="A8" t="n">
         <v>18</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C8" t="n">
         <v>995.14</v>
@@ -2157,10 +2147,8 @@
       <c r="A9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44982</v>
       </c>
       <c r="C9" t="n">
         <v>995.14</v>
@@ -2356,10 +2344,8 @@
       <c r="A10" t="n">
         <v>20</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44983</v>
       </c>
       <c r="C10" t="n">
         <v>995.14</v>
@@ -2555,10 +2541,8 @@
       <c r="A11" t="n">
         <v>21</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C11" t="n">
         <v>995.14</v>
@@ -2754,10 +2738,8 @@
       <c r="A12" t="n">
         <v>22</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="C12" t="n">
         <v>995.14</v>
@@ -2953,10 +2935,8 @@
       <c r="A13" t="n">
         <v>23</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44986</v>
       </c>
       <c r="C13" t="n">
         <v>1027.14</v>
@@ -3152,10 +3132,8 @@
       <c r="A14" t="n">
         <v>24</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44987</v>
       </c>
       <c r="C14" t="n">
         <v>1027.14</v>
@@ -3351,10 +3329,8 @@
       <c r="A15" t="n">
         <v>25</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44988</v>
       </c>
       <c r="C15" t="n">
         <v>1027.14</v>
@@ -3550,10 +3526,8 @@
       <c r="A16" t="n">
         <v>26</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44989</v>
       </c>
       <c r="C16" t="n">
         <v>1027.14</v>
@@ -3749,10 +3723,8 @@
       <c r="A17" t="n">
         <v>27</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44990</v>
       </c>
       <c r="C17" t="n">
         <v>1027.14</v>
@@ -3948,10 +3920,8 @@
       <c r="A18" t="n">
         <v>28</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C18" t="n">
         <v>1027.14</v>
@@ -4147,10 +4117,8 @@
       <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-03-07</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44992</v>
       </c>
       <c r="C19" t="n">
         <v>1027.14</v>
@@ -4346,10 +4314,8 @@
       <c r="A20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44993</v>
       </c>
       <c r="C20" t="n">
         <v>1027.14</v>
@@ -4545,10 +4511,8 @@
       <c r="A21" t="n">
         <v>32</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44994</v>
       </c>
       <c r="C21" t="n">
         <v>1027.14</v>
@@ -4744,10 +4708,8 @@
       <c r="A22" t="n">
         <v>33</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-03-10</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44995</v>
       </c>
       <c r="C22" t="n">
         <v>1027.14</v>
@@ -4943,10 +4905,8 @@
       <c r="A23" t="n">
         <v>34</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-03-11</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>44996</v>
       </c>
       <c r="C23" t="n">
         <v>1027.14</v>
@@ -5142,10 +5102,8 @@
       <c r="A24" t="n">
         <v>35</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-03-12</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>44997</v>
       </c>
       <c r="C24" t="n">
         <v>1027.14</v>
@@ -5341,10 +5299,8 @@
       <c r="A25" t="n">
         <v>36</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-03-13</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>44998</v>
       </c>
       <c r="C25" t="n">
         <v>1027.14</v>
@@ -5540,10 +5496,8 @@
       <c r="A26" t="n">
         <v>37</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-03-14</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44999</v>
       </c>
       <c r="C26" t="n">
         <v>1027.14</v>
@@ -5739,10 +5693,8 @@
       <c r="A27" t="n">
         <v>38</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-03-15</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>45000</v>
       </c>
       <c r="C27" t="n">
         <v>1027.14</v>
@@ -5938,10 +5890,8 @@
       <c r="A28" t="n">
         <v>39</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-03-16</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>45001</v>
       </c>
       <c r="C28" t="n">
         <v>1027.14</v>
@@ -6137,10 +6087,8 @@
       <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>45002</v>
       </c>
       <c r="C29" t="n">
         <v>1027.14</v>
@@ -6336,10 +6284,8 @@
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-03-18</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>45003</v>
       </c>
       <c r="C30" t="n">
         <v>1027.14</v>
@@ -6528,6 +6474,400 @@
         <v>770.85</v>
       </c>
       <c r="BM30" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1027.14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E31" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F31" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H31" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I31" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>429.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1299.9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1220</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X31" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2699</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>419</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>479</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>899</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1313.15</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1027.14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F32" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I32" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P32" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X32" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>479</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>899</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1313.15</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM32" t="n">
         <v>418.56</v>
       </c>
     </row>

--- a/scripts/datos/precios.xlsx
+++ b/scripts/datos/precios.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM32"/>
+  <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,8 +764,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44974</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>995.14</v>
@@ -965,8 +963,10 @@
       <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>44975</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>995.14</v>
@@ -1162,8 +1162,10 @@
       <c r="A4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44977</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>995.14</v>
@@ -1359,8 +1361,10 @@
       <c r="A5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44978</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>995.14</v>
@@ -1556,8 +1560,10 @@
       <c r="A6" t="n">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44979</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>995.14</v>
@@ -1753,8 +1759,10 @@
       <c r="A7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44980</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>995.14</v>
@@ -1950,8 +1958,10 @@
       <c r="A8" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>44981</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>995.14</v>
@@ -2147,8 +2157,10 @@
       <c r="A9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44982</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>995.14</v>
@@ -2344,8 +2356,10 @@
       <c r="A10" t="n">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44983</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-02-26</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>995.14</v>
@@ -2541,8 +2555,10 @@
       <c r="A11" t="n">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44984</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>995.14</v>
@@ -2738,8 +2754,10 @@
       <c r="A12" t="n">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>44985</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>995.14</v>
@@ -2935,8 +2953,10 @@
       <c r="A13" t="n">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44986</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1027.14</v>
@@ -3132,8 +3152,10 @@
       <c r="A14" t="n">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>44987</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>1027.14</v>
@@ -3329,8 +3351,10 @@
       <c r="A15" t="n">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44988</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>1027.14</v>
@@ -3526,8 +3550,10 @@
       <c r="A16" t="n">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>44989</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>1027.14</v>
@@ -3723,8 +3749,10 @@
       <c r="A17" t="n">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>44990</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1027.14</v>
@@ -3920,8 +3948,10 @@
       <c r="A18" t="n">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>44991</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>1027.14</v>
@@ -4117,8 +4147,10 @@
       <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>44992</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>1027.14</v>
@@ -4314,8 +4346,10 @@
       <c r="A20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44993</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>1027.14</v>
@@ -4511,8 +4545,10 @@
       <c r="A21" t="n">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44994</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>1027.14</v>
@@ -4708,8 +4744,10 @@
       <c r="A22" t="n">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44995</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>1027.14</v>
@@ -4905,8 +4943,10 @@
       <c r="A23" t="n">
         <v>34</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>44996</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>1027.14</v>
@@ -5102,8 +5142,10 @@
       <c r="A24" t="n">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44997</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>1027.14</v>
@@ -5299,8 +5341,10 @@
       <c r="A25" t="n">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44998</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>1027.14</v>
@@ -5496,8 +5540,10 @@
       <c r="A26" t="n">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>44999</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>1027.14</v>
@@ -5693,8 +5739,10 @@
       <c r="A27" t="n">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>45000</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>1027.14</v>
@@ -5890,8 +5938,10 @@
       <c r="A28" t="n">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>45001</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-03-16</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>1027.14</v>
@@ -6087,8 +6137,10 @@
       <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>45002</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>1027.14</v>
@@ -6284,8 +6336,10 @@
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>45003</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>1027.14</v>
@@ -6481,8 +6535,10 @@
       <c r="A31" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>45004</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-03-19</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>1027.14</v>
@@ -6678,8 +6734,10 @@
       <c r="A32" t="n">
         <v>13</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>45005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>1027.14</v>
@@ -6868,6 +6926,205 @@
         <v>770.85</v>
       </c>
       <c r="BM32" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D33" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E33" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F33" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H33" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I33" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N33" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P33" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R33" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X33" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>479</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>319</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1313.15</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM33" t="n">
         <v>418.56</v>
       </c>
     </row>

--- a/scripts/datos/precios.xlsx
+++ b/scripts/datos/precios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM33"/>
+  <dimension ref="A1:BM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7128,6 +7128,1200 @@
         <v>418.56</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D34" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E34" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F34" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G34" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H34" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I34" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N34" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P34" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X34" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>499</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>319</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1444.47</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D35" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E35" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F35" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H35" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I35" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L35" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P35" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X35" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>499</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>249</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>279</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1444.47</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>18</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D36" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E36" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F36" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G36" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H36" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I36" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>949.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L36" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P36" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>829.9</v>
+      </c>
+      <c r="R36" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X36" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>499</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>279</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1444.47</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>19</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E37" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F37" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G37" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H37" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I37" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>949.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N37" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P37" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>829.9</v>
+      </c>
+      <c r="R37" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X37" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>499</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>279</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1444.47</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D38" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E38" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F38" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G38" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H38" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I38" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>949.9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N38" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>829.9</v>
+      </c>
+      <c r="R38" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W38" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X38" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>499</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>279</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1444.47</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E39" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F39" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G39" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H39" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I39" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L39" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P39" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X39" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2699</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>449</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>189</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>499</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>279</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>199</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1444.47</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
